--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/MatrizEDT.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/MatrizEDT.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="APC5oT2y0tzT3h33WwuebOIjd9XTfl+giufvsOQupjE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="DeDU7Ny4v576gI7X4HhacTG72yUQaf1AARUOV0n5f4k="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>DIAS</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Monitoreo de Riesgos Técnicos</t>
   </si>
   <si>
-    <t>Pruebas de Riesgos</t>
-  </si>
-  <si>
     <t>Integración de Ciencia de datos</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
   </si>
   <si>
     <t>Revisión Final de Riesgos</t>
-  </si>
-  <si>
-    <t>Informe de Riesgos Residuales</t>
   </si>
   <si>
     <t>Dias ocupados</t>
@@ -1153,15 +1147,15 @@
         <v>930456</v>
       </c>
       <c r="O4" s="18">
-        <f>SUM(C27:C33)*L4</f>
-        <v>2377832</v>
+        <f>SUM(C27:C32)*L4</f>
+        <v>2326140</v>
       </c>
       <c r="P4" s="18">
-        <f>SUM(C35:C40)*L4</f>
+        <f>SUM(C34:C39)*L4</f>
         <v>51692</v>
       </c>
       <c r="Q4" s="18">
-        <f>SUM(C42:C47)*L4</f>
+        <f>SUM(C41:C45)*L4</f>
         <v>361844</v>
       </c>
       <c r="R4" s="1"/>
@@ -1216,15 +1210,15 @@
         <v>548328</v>
       </c>
       <c r="O5" s="18">
-        <f>SUM(D27:D33)*L5</f>
-        <v>1744680</v>
+        <f>SUM(D27:D32)*L5</f>
+        <v>1711448</v>
       </c>
       <c r="P5" s="18">
-        <f>SUM(D35:D40)*L5</f>
+        <f>SUM(D34:D39)*L5</f>
         <v>33232</v>
       </c>
       <c r="Q5" s="18">
-        <f>SUM(D42:D47)*L5</f>
+        <f>SUM(D41:D45)*L5</f>
         <v>149544</v>
       </c>
       <c r="R5" s="1"/>
@@ -1279,16 +1273,16 @@
         <v>118176</v>
       </c>
       <c r="O6" s="22">
-        <f>SUM(E27:E33)*L6</f>
-        <v>59088</v>
+        <f>SUM(E27:E32)*L6</f>
+        <v>29544</v>
       </c>
       <c r="P6" s="22">
-        <f>SUM(E35:E40)*L6</f>
+        <f>SUM(E34:E39)*L6</f>
         <v>324984</v>
       </c>
       <c r="Q6" s="22">
-        <f>SUM(E42:E47)*L6</f>
-        <v>162492</v>
+        <f>SUM(E41:E45)*L6</f>
+        <v>132948</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1342,15 +1336,15 @@
         <v>25848</v>
       </c>
       <c r="O7" s="26">
-        <f>SUM(F27:F33)*L7</f>
-        <v>1809360</v>
+        <f>SUM(F27:F32)*L7</f>
+        <v>1774896</v>
       </c>
       <c r="P7" s="26">
-        <f>SUM(F35:F40)*L7</f>
+        <f>SUM(F34:F39)*L7</f>
         <v>34464</v>
       </c>
       <c r="Q7" s="26">
-        <f>SUM(F42:F47)*L7</f>
+        <f>SUM(F41:F45)*L7</f>
         <v>155088</v>
       </c>
       <c r="R7" s="1"/>
@@ -1382,7 +1376,10 @@
       <c r="F8" s="13">
         <v>8.0</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <f>SUM(F4:F11,F13:F25,F27:F32,F34:F40,F41:F45)</f>
+        <v>269</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
@@ -1465,9 +1462,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="8"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
@@ -1735,7 +1732,7 @@
       </c>
       <c r="J16" s="41">
         <f>SUM(O4:O11)</f>
-        <v>5990960</v>
+        <v>5842028</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1833,7 +1830,7 @@
       </c>
       <c r="J18" s="41">
         <f>SUM(Q4:Q11)</f>
-        <v>828968</v>
+        <v>799424</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1882,7 +1879,7 @@
       </c>
       <c r="J19" s="50">
         <f>SUM(J14:J18)</f>
-        <v>10301962</v>
+        <v>10123486</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2107,7 +2104,7 @@
       </c>
       <c r="J24" s="41">
         <f t="shared" ref="J24:J27" si="1">SUM(M4:Q4)</f>
-        <v>4212898</v>
+        <v>4161206</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2157,7 +2154,7 @@
       </c>
       <c r="J25" s="41">
         <f t="shared" si="1"/>
-        <v>2791488</v>
+        <v>2758256</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2181,7 +2178,8 @@
         <v>63</v>
       </c>
       <c r="B26" s="7">
-        <v>28.0</v>
+        <f>SUM(B27:B32)</f>
+        <v>27</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -2194,7 +2192,7 @@
       </c>
       <c r="J26" s="41">
         <f t="shared" si="1"/>
-        <v>945408</v>
+        <v>886320</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2239,7 +2237,7 @@
       </c>
       <c r="J27" s="41">
         <f t="shared" si="1"/>
-        <v>2352168</v>
+        <v>2317704</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2284,7 +2282,7 @@
       </c>
       <c r="J28" s="50">
         <f>SUM(J24:J27)</f>
-        <v>10301962</v>
+        <v>10123486</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2333,7 +2331,7 @@
       </c>
       <c r="N29" s="55">
         <f>J28+N14+N15</f>
-        <v>12347484</v>
+        <v>12169008</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2433,22 +2431,24 @@
         <v>71</v>
       </c>
       <c r="B32" s="13">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C32" s="13">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="13">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="E32" s="13">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="13">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2467,24 +2467,17 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="13">
-        <v>16.0</v>
-      </c>
+      <c r="B33" s="7">
+        <f>SUM(B34:B39)</f>
+        <v>11</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2507,16 +2500,24 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
+      <c r="B34" s="56">
+        <v>2.0</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0.0</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2699,23 +2700,23 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="56">
-        <v>2.0</v>
+      <c r="B39" s="58">
+        <v>1.0</v>
       </c>
       <c r="C39" s="13">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D39" s="13">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E39" s="13">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="F39" s="13">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2739,24 +2740,17 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="C40" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="D40" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="E40" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="F40" s="13">
-        <v>4.0</v>
-      </c>
+      <c r="B40" s="7">
+        <f>SUM(B41:B45)</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2779,16 +2773,24 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="56">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="13">
         <v>6.0</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+      <c r="D41" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0.0</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2821,13 +2823,13 @@
         <v>6.0</v>
       </c>
       <c r="D42" s="13">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E42" s="13">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F42" s="13">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2898,16 +2900,16 @@
         <v>1.0</v>
       </c>
       <c r="C44" s="13">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D44" s="13">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" s="13">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" s="13">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2931,23 +2933,23 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="13">
         <v>1.0</v>
       </c>
       <c r="C45" s="13">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D45" s="13">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E45" s="13">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F45" s="13">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2971,24 +2973,6 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="C46" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D46" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="E46" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="F46" s="13">
-        <v>6.0</v>
-      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3011,24 +2995,6 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="C47" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="D47" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E47" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="F47" s="13">
-        <v>0.0</v>
-      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3051,6 +3017,11 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" ht="13.5" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3073,6 +3044,17 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" ht="13.5" customHeight="1">
+      <c r="A49" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="61">
+        <f>SUM(B3,B12,B26,B33,B40)</f>
+        <v>74</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3095,7 +3077,13 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="1"/>
+      <c r="A50" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="63">
+        <f>B56-B49</f>
+        <v>14</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3122,13 +3110,7 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="61">
-        <f>SUM(B3,B12,B26,B34,B41)</f>
-        <v>76</v>
-      </c>
+      <c r="B51" s="64"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3155,12 +3137,11 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="63">
-        <f>B58-B51</f>
-        <v>12</v>
+      <c r="A52" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="66">
+        <v>134.0</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3188,7 +3169,12 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" ht="13.5" customHeight="1">
-      <c r="B53" s="64"/>
+      <c r="A53" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="66">
+        <v>36.0</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3219,7 +3205,8 @@
         <v>89</v>
       </c>
       <c r="B54" s="66">
-        <v>134.0</v>
+        <f>B52-B53</f>
+        <v>98</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3251,7 +3238,7 @@
         <v>90</v>
       </c>
       <c r="B55" s="66">
-        <v>36.0</v>
+        <v>10.0</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3284,7 +3271,7 @@
       </c>
       <c r="B56" s="66">
         <f>B54-B55</f>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3312,16 +3299,6 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="66">
-        <v>10.0</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3344,17 +3321,6 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="66">
-        <f>B56-B57</f>
-        <v>88</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3399,6 +3365,12 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" ht="13.5" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3421,6 +3393,12 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -29790,62 +29768,6 @@
       <c r="Y1002" s="1"/>
       <c r="Z1002" s="1"/>
     </row>
-    <row r="1003" ht="13.5" customHeight="1">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="1"/>
-      <c r="G1003" s="1"/>
-      <c r="H1003" s="1"/>
-      <c r="I1003" s="1"/>
-      <c r="J1003" s="1"/>
-      <c r="K1003" s="1"/>
-      <c r="L1003" s="1"/>
-      <c r="M1003" s="1"/>
-      <c r="N1003" s="1"/>
-      <c r="O1003" s="1"/>
-      <c r="P1003" s="1"/>
-      <c r="Q1003" s="1"/>
-      <c r="R1003" s="1"/>
-      <c r="S1003" s="1"/>
-      <c r="T1003" s="1"/>
-      <c r="U1003" s="1"/>
-      <c r="V1003" s="1"/>
-      <c r="W1003" s="1"/>
-      <c r="X1003" s="1"/>
-      <c r="Y1003" s="1"/>
-      <c r="Z1003" s="1"/>
-    </row>
-    <row r="1004" ht="13.5" customHeight="1">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="1"/>
-      <c r="E1004" s="1"/>
-      <c r="F1004" s="1"/>
-      <c r="G1004" s="1"/>
-      <c r="H1004" s="1"/>
-      <c r="I1004" s="1"/>
-      <c r="J1004" s="1"/>
-      <c r="K1004" s="1"/>
-      <c r="L1004" s="1"/>
-      <c r="M1004" s="1"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
-      <c r="P1004" s="1"/>
-      <c r="Q1004" s="1"/>
-      <c r="R1004" s="1"/>
-      <c r="S1004" s="1"/>
-      <c r="T1004" s="1"/>
-      <c r="U1004" s="1"/>
-      <c r="V1004" s="1"/>
-      <c r="W1004" s="1"/>
-      <c r="X1004" s="1"/>
-      <c r="Y1004" s="1"/>
-      <c r="Z1004" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:F2"/>
